--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H2">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.26410876202681</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N2">
-        <v>0.26410876202681</v>
+        <v>2.323312</v>
       </c>
       <c r="O2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q2">
-        <v>11.51314601111231</v>
+        <v>37.046857068208</v>
       </c>
       <c r="R2">
-        <v>11.51314601111231</v>
+        <v>333.421713613872</v>
       </c>
       <c r="S2">
-        <v>3.458446599759258E-05</v>
+        <v>0.0001020011451560035</v>
       </c>
       <c r="T2">
-        <v>3.458446599759258E-05</v>
+        <v>0.0001020011451560034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H3">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>126.773838160473</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N3">
-        <v>126.773838160473</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O3">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P3">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q3">
-        <v>5526.381245096614</v>
+        <v>13.700664792763</v>
       </c>
       <c r="R3">
-        <v>5526.381245096614</v>
+        <v>123.305983134867</v>
       </c>
       <c r="S3">
-        <v>0.01660075743643869</v>
+        <v>3.772205279620399E-05</v>
       </c>
       <c r="T3">
-        <v>0.01660075743643869</v>
+        <v>3.772205279620398E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H4">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I4">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J4">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>245.628914213803</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N4">
-        <v>245.628914213803</v>
+        <v>382.153595</v>
       </c>
       <c r="O4">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P4">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q4">
-        <v>10707.56430870485</v>
+        <v>6093.710019173855</v>
       </c>
       <c r="R4">
-        <v>10707.56430870485</v>
+        <v>54843.39017256469</v>
       </c>
       <c r="S4">
-        <v>0.03216457025681912</v>
+        <v>0.01677781732091237</v>
       </c>
       <c r="T4">
-        <v>0.03216457025681912</v>
+        <v>0.01677781732091236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H5">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I5">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J5">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.122494061235655</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N5">
-        <v>0.122494061235655</v>
+        <v>777.557327</v>
       </c>
       <c r="O5">
-        <v>0.0003285878728236385</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P5">
-        <v>0.0003285878728236385</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q5">
-        <v>5.339815315771569</v>
+        <v>12398.70286715984</v>
       </c>
       <c r="R5">
-        <v>5.339815315771569</v>
+        <v>111588.3258044386</v>
       </c>
       <c r="S5">
-        <v>1.60403299883004E-05</v>
+        <v>0.03413735984596173</v>
       </c>
       <c r="T5">
-        <v>1.60403299883004E-05</v>
+        <v>0.03413735984596173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.691236986877</v>
+        <v>47.837127</v>
       </c>
       <c r="H6">
-        <v>255.691236986877</v>
+        <v>143.511381</v>
       </c>
       <c r="I6">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J6">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.26410876202681</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N6">
-        <v>0.26410876202681</v>
+        <v>0.53471</v>
       </c>
       <c r="O6">
-        <v>0.0007084664793791137</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P6">
-        <v>0.0007084664793791137</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q6">
-        <v>67.53029606170777</v>
+        <v>8.526330059390002</v>
       </c>
       <c r="R6">
-        <v>67.53029606170777</v>
+        <v>76.73697053451001</v>
       </c>
       <c r="S6">
-        <v>0.0002028549994675048</v>
+        <v>2.347555228327776E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002028549994675048</v>
+        <v>2.347555228327775E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J7">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.773838160473</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N7">
-        <v>126.773838160473</v>
+        <v>2.323312</v>
       </c>
       <c r="O7">
-        <v>0.3400682889491209</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P7">
-        <v>0.3400682889491209</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q7">
-        <v>32414.95949682549</v>
+        <v>198.1825778471253</v>
       </c>
       <c r="R7">
-        <v>32414.95949682549</v>
+        <v>1783.643200624128</v>
       </c>
       <c r="S7">
-        <v>0.09737165353842274</v>
+        <v>0.0005456562712771413</v>
       </c>
       <c r="T7">
-        <v>0.09737165353842274</v>
+        <v>0.0005456562712771413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J8">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>245.628914213803</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N8">
-        <v>245.628914213803</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O8">
-        <v>0.6588946566986762</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P8">
-        <v>0.6588946566986762</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q8">
-        <v>62805.16091507078</v>
+        <v>73.29186013944535</v>
       </c>
       <c r="R8">
-        <v>62805.16091507078</v>
+        <v>659.626741255008</v>
       </c>
       <c r="S8">
-        <v>0.1886611140034301</v>
+        <v>0.0002017945449751126</v>
       </c>
       <c r="T8">
-        <v>0.1886611140034301</v>
+        <v>0.0002017945449751126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>255.691236986877</v>
+        <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>255.691236986877</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J9">
-        <v>0.2863297070106732</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.122494061235655</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N9">
-        <v>0.122494061235655</v>
+        <v>382.153595</v>
       </c>
       <c r="O9">
-        <v>0.0003285878728236385</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P9">
-        <v>0.0003285878728236385</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q9">
-        <v>31.32065804089088</v>
+        <v>32598.37016752219</v>
       </c>
       <c r="R9">
-        <v>31.32065804089088</v>
+        <v>293385.3315076997</v>
       </c>
       <c r="S9">
-        <v>9.408446935285276E-05</v>
+        <v>0.08975312213893562</v>
       </c>
       <c r="T9">
-        <v>9.408446935285276E-05</v>
+        <v>0.0897531221389356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>295.40478970594</v>
+        <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>295.40478970594</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J10">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.26410876202681</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N10">
-        <v>0.26410876202681</v>
+        <v>777.557327</v>
       </c>
       <c r="O10">
-        <v>0.0007084664793791137</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P10">
-        <v>0.0007084664793791137</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q10">
-        <v>78.01899330602596</v>
+        <v>66327.00020005069</v>
       </c>
       <c r="R10">
-        <v>78.01899330602596</v>
+        <v>596943.0018004562</v>
       </c>
       <c r="S10">
-        <v>0.0002343621125411206</v>
+        <v>0.1826181897889912</v>
       </c>
       <c r="T10">
-        <v>0.0002343621125411206</v>
+        <v>0.1826181897889912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>295.40478970594</v>
+        <v>255.905248</v>
       </c>
       <c r="H11">
-        <v>295.40478970594</v>
+        <v>767.715744</v>
       </c>
       <c r="I11">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J11">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>126.773838160473</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N11">
-        <v>126.773838160473</v>
+        <v>0.53471</v>
       </c>
       <c r="O11">
-        <v>0.3400682889491209</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P11">
-        <v>0.3400682889491209</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q11">
-        <v>37449.5990020094</v>
+        <v>45.61169838602667</v>
       </c>
       <c r="R11">
-        <v>37449.5990020094</v>
+        <v>410.50528547424</v>
       </c>
       <c r="S11">
-        <v>0.1124952625510341</v>
+        <v>0.0001255827305220307</v>
       </c>
       <c r="T11">
-        <v>0.1124952625510341</v>
+        <v>0.0001255827305220307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H12">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I12">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J12">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>245.628914213803</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N12">
-        <v>245.628914213803</v>
+        <v>2.323312</v>
       </c>
       <c r="O12">
-        <v>0.6588946566986762</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P12">
-        <v>0.6588946566986762</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q12">
-        <v>72559.95774902686</v>
+        <v>229.0498777830275</v>
       </c>
       <c r="R12">
-        <v>72559.95774902686</v>
+        <v>2061.448900047248</v>
       </c>
       <c r="S12">
-        <v>0.2179636555582543</v>
+        <v>0.0006306432361778093</v>
       </c>
       <c r="T12">
-        <v>0.2179636555582543</v>
+        <v>0.0006306432361778094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.40478970594</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H13">
-        <v>295.40478970594</v>
+        <v>887.288879</v>
       </c>
       <c r="I13">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J13">
-        <v>0.330801977740021</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.122494061235655</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N13">
-        <v>0.122494061235655</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O13">
-        <v>0.0003285878728236385</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P13">
-        <v>0.0003285878728236385</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q13">
-        <v>36.1853323995452</v>
+        <v>84.7072017621059</v>
       </c>
       <c r="R13">
-        <v>36.1853323995452</v>
+        <v>762.364815858953</v>
       </c>
       <c r="S13">
-        <v>0.0001086975181914461</v>
+        <v>0.0002332244154149882</v>
       </c>
       <c r="T13">
-        <v>0.0001086975181914461</v>
+        <v>0.0002332244154149882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.802623672374</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H14">
-        <v>140.802623672374</v>
+        <v>887.288879</v>
       </c>
       <c r="I14">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J14">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.26410876202681</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N14">
-        <v>0.26410876202681</v>
+        <v>382.153595</v>
       </c>
       <c r="O14">
-        <v>0.0007084664793791137</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P14">
-        <v>0.0007084664793791137</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q14">
-        <v>37.18720662823751</v>
+        <v>37675.62610148555</v>
       </c>
       <c r="R14">
-        <v>37.18720662823751</v>
+        <v>339080.63491337</v>
       </c>
       <c r="S14">
-        <v>0.0001117070592120004</v>
+        <v>0.1037323355054267</v>
       </c>
       <c r="T14">
-        <v>0.0001117070592120004</v>
+        <v>0.1037323355054267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.802623672374</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H15">
-        <v>140.802623672374</v>
+        <v>887.288879</v>
       </c>
       <c r="I15">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J15">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>126.773838160473</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N15">
-        <v>126.773838160473</v>
+        <v>777.557327</v>
       </c>
       <c r="O15">
-        <v>0.3400682889491209</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P15">
-        <v>0.3400682889491209</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q15">
-        <v>17850.08902601153</v>
+        <v>76657.55211467404</v>
       </c>
       <c r="R15">
-        <v>17850.08902601153</v>
+        <v>689917.9690320664</v>
       </c>
       <c r="S15">
-        <v>0.05362007885405545</v>
+        <v>0.2110613077421573</v>
       </c>
       <c r="T15">
-        <v>0.05362007885405545</v>
+        <v>0.2110613077421574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.802623672374</v>
+        <v>295.7629596666666</v>
       </c>
       <c r="H16">
-        <v>140.802623672374</v>
+        <v>887.288879</v>
       </c>
       <c r="I16">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="J16">
-        <v>0.1576744453878726</v>
+        <v>0.315802653370277</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>245.628914213803</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N16">
-        <v>245.628914213803</v>
+        <v>0.53471</v>
       </c>
       <c r="O16">
-        <v>0.6588946566986762</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P16">
-        <v>0.6588946566986762</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q16">
-        <v>34585.19557109995</v>
+        <v>52.71580405445444</v>
       </c>
       <c r="R16">
-        <v>34585.19557109995</v>
+        <v>474.44223649009</v>
       </c>
       <c r="S16">
-        <v>0.1038908495639965</v>
+        <v>0.000145142471100152</v>
       </c>
       <c r="T16">
-        <v>0.1038908495639965</v>
+        <v>0.000145142471100152</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.802623672374</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H17">
-        <v>140.802623672374</v>
+        <v>450.723769</v>
       </c>
       <c r="I17">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J17">
-        <v>0.1576744453878726</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.122494061235655</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="N17">
-        <v>0.122494061235655</v>
+        <v>2.323312</v>
       </c>
       <c r="O17">
-        <v>0.0003285878728236385</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="P17">
-        <v>0.0003285878728236385</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="Q17">
-        <v>17.24748520626467</v>
+        <v>116.3524379114364</v>
       </c>
       <c r="R17">
-        <v>17.24748520626467</v>
+        <v>1047.171941202928</v>
       </c>
       <c r="S17">
-        <v>5.180991060864802E-05</v>
+        <v>0.0003203532727974373</v>
       </c>
       <c r="T17">
-        <v>5.180991060864802E-05</v>
+        <v>0.0003203532727974374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>157.504746332113</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H18">
-        <v>157.504746332113</v>
+        <v>450.723769</v>
       </c>
       <c r="I18">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J18">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.26410876202681</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="N18">
-        <v>0.26410876202681</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="O18">
-        <v>0.0007084664793791137</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="P18">
-        <v>0.0007084664793791137</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="Q18">
-        <v>41.5983835671211</v>
+        <v>43.02944637679811</v>
       </c>
       <c r="R18">
-        <v>41.5983835671211</v>
+        <v>387.2650173911831</v>
       </c>
       <c r="S18">
-        <v>0.0001249578421608953</v>
+        <v>0.0001184730137237133</v>
       </c>
       <c r="T18">
-        <v>0.0001249578421608953</v>
+        <v>0.0001184730137237133</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>157.504746332113</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H19">
-        <v>157.504746332113</v>
+        <v>450.723769</v>
       </c>
       <c r="I19">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J19">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>126.773838160473</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="N19">
-        <v>126.773838160473</v>
+        <v>382.153595</v>
       </c>
       <c r="O19">
-        <v>0.3400682889491209</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="P19">
-        <v>0.3400682889491209</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="Q19">
-        <v>19967.48122101365</v>
+        <v>19138.41207503328</v>
       </c>
       <c r="R19">
-        <v>19967.48122101365</v>
+        <v>172245.7086752996</v>
       </c>
       <c r="S19">
-        <v>0.05998053656916991</v>
+        <v>0.05269380731884327</v>
       </c>
       <c r="T19">
-        <v>0.05998053656916991</v>
+        <v>0.05269380731884326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>157.504746332113</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H20">
-        <v>157.504746332113</v>
+        <v>450.723769</v>
       </c>
       <c r="I20">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J20">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>245.628914213803</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="N20">
-        <v>245.628914213803</v>
+        <v>777.557327</v>
       </c>
       <c r="O20">
-        <v>0.6588946566986762</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="P20">
-        <v>0.6588946566986762</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="Q20">
-        <v>38687.71982507739</v>
+        <v>38940.39655988949</v>
       </c>
       <c r="R20">
-        <v>38687.71982507739</v>
+        <v>350463.5690390054</v>
       </c>
       <c r="S20">
-        <v>0.1162144673161763</v>
+        <v>0.1072146291553081</v>
       </c>
       <c r="T20">
-        <v>0.1162144673161763</v>
+        <v>0.1072146291553081</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>157.504746332113</v>
+        <v>150.2412563333333</v>
       </c>
       <c r="H21">
-        <v>157.504746332113</v>
+        <v>450.723769</v>
       </c>
       <c r="I21">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="J21">
-        <v>0.1763779173721895</v>
+        <v>0.1604209920309976</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.122494061235655</v>
+        <v>0.1782366666666667</v>
       </c>
       <c r="N21">
-        <v>0.122494061235655</v>
+        <v>0.53471</v>
       </c>
       <c r="O21">
-        <v>0.0003285878728236385</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="P21">
-        <v>0.0003285878728236385</v>
+        <v>0.0004595986434919951</v>
       </c>
       <c r="Q21">
-        <v>19.29339604211216</v>
+        <v>26.77850072466556</v>
       </c>
       <c r="R21">
-        <v>19.29339604211216</v>
+        <v>241.00650652199</v>
       </c>
       <c r="S21">
-        <v>5.795564468239123E-05</v>
+        <v>7.372927032508665E-05</v>
       </c>
       <c r="T21">
-        <v>5.795564468239123E-05</v>
+        <v>7.372927032508664E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H22">
+        <v>560.391082</v>
+      </c>
+      <c r="I22">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J22">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7744373333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.323312</v>
+      </c>
+      <c r="O22">
+        <v>0.001996953570362765</v>
+      </c>
+      <c r="P22">
+        <v>0.001996953570362765</v>
+      </c>
+      <c r="Q22">
+        <v>144.6625917226204</v>
+      </c>
+      <c r="R22">
+        <v>1301.963325503584</v>
+      </c>
+      <c r="S22">
+        <v>0.0003982996449543735</v>
+      </c>
+      <c r="T22">
+        <v>0.0003982996449543736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H23">
+        <v>560.391082</v>
+      </c>
+      <c r="I23">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J23">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2864023333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.8592070000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.0007385131598040558</v>
+      </c>
+      <c r="P23">
+        <v>0.0007385131598040558</v>
+      </c>
+      <c r="Q23">
+        <v>53.49910448799712</v>
+      </c>
+      <c r="R23">
+        <v>481.491940391974</v>
+      </c>
+      <c r="S23">
+        <v>0.0001472991328940377</v>
+      </c>
+      <c r="T23">
+        <v>0.0001472991328940377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H24">
+        <v>560.391082</v>
+      </c>
+      <c r="I24">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J24">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>127.3845316666667</v>
+      </c>
+      <c r="N24">
+        <v>382.153595</v>
+      </c>
+      <c r="O24">
+        <v>0.3284720200998472</v>
+      </c>
+      <c r="P24">
+        <v>0.3284720200998472</v>
+      </c>
+      <c r="Q24">
+        <v>23795.05184358219</v>
+      </c>
+      <c r="R24">
+        <v>214155.4665922398</v>
+      </c>
+      <c r="S24">
+        <v>0.06551493781572922</v>
+      </c>
+      <c r="T24">
+        <v>0.0655149378157292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H25">
+        <v>560.391082</v>
+      </c>
+      <c r="I25">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J25">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>259.1857756666666</v>
+      </c>
+      <c r="N25">
+        <v>777.557327</v>
+      </c>
+      <c r="O25">
+        <v>0.668332914526494</v>
+      </c>
+      <c r="P25">
+        <v>0.6683329145264941</v>
+      </c>
+      <c r="Q25">
+        <v>48415.13242161753</v>
+      </c>
+      <c r="R25">
+        <v>435736.1917945578</v>
+      </c>
+      <c r="S25">
+        <v>0.1333014279940756</v>
+      </c>
+      <c r="T25">
+        <v>0.1333014279940756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H26">
+        <v>560.391082</v>
+      </c>
+      <c r="I26">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J26">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1782366666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.53471</v>
+      </c>
+      <c r="O26">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="P26">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="Q26">
+        <v>33.29407949513556</v>
+      </c>
+      <c r="R26">
+        <v>299.64671545622</v>
+      </c>
+      <c r="S26">
+        <v>9.166861926144792E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.166861926144791E-05</v>
       </c>
     </row>
   </sheetData>
